--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1477.050098771571</v>
+        <v>1721.660634273937</v>
       </c>
       <c r="AB2" t="n">
-        <v>2020.965107990659</v>
+        <v>2355.652034120199</v>
       </c>
       <c r="AC2" t="n">
-        <v>1828.087034526373</v>
+        <v>2130.831910162161</v>
       </c>
       <c r="AD2" t="n">
-        <v>1477050.098771571</v>
+        <v>1721660.634273937</v>
       </c>
       <c r="AE2" t="n">
-        <v>2020965.107990659</v>
+        <v>2355652.034120199</v>
       </c>
       <c r="AF2" t="n">
         <v>3.33965506718257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.9921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1828087.034526373</v>
+        <v>2130831.910162162</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>745.2291139845016</v>
+        <v>901.7771234725134</v>
       </c>
       <c r="AB3" t="n">
-        <v>1019.655350941749</v>
+        <v>1233.851243933996</v>
       </c>
       <c r="AC3" t="n">
-        <v>922.3408753431411</v>
+        <v>1116.094212934031</v>
       </c>
       <c r="AD3" t="n">
-        <v>745229.1139845016</v>
+        <v>901777.1234725134</v>
       </c>
       <c r="AE3" t="n">
-        <v>1019655.350941749</v>
+        <v>1233851.243933996</v>
       </c>
       <c r="AF3" t="n">
         <v>5.253815265943099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.87630208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>922340.875343141</v>
+        <v>1116094.212934031</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>606.9398419878999</v>
+        <v>734.1232986947239</v>
       </c>
       <c r="AB4" t="n">
-        <v>830.4418681038977</v>
+        <v>1004.459884508284</v>
       </c>
       <c r="AC4" t="n">
-        <v>751.1856617445432</v>
+        <v>908.5956428991149</v>
       </c>
       <c r="AD4" t="n">
-        <v>606939.8419878999</v>
+        <v>734123.2986947239</v>
       </c>
       <c r="AE4" t="n">
-        <v>830441.8681038977</v>
+        <v>1004459.884508284</v>
       </c>
       <c r="AF4" t="n">
         <v>6.00863083046693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.11979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>751185.6617445431</v>
+        <v>908595.6428991149</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>544.7662735906242</v>
+        <v>671.982884686372</v>
       </c>
       <c r="AB5" t="n">
-        <v>745.3732489184921</v>
+        <v>919.4366286204723</v>
       </c>
       <c r="AC5" t="n">
-        <v>674.2358721796356</v>
+        <v>831.6868872223466</v>
       </c>
       <c r="AD5" t="n">
-        <v>544766.2735906242</v>
+        <v>671982.884686372</v>
       </c>
       <c r="AE5" t="n">
-        <v>745373.2489184921</v>
+        <v>919436.6286204724</v>
       </c>
       <c r="AF5" t="n">
         <v>6.312389249917593e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.86328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>674235.8721796357</v>
+        <v>831686.8872223466</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>545.7405894345929</v>
+        <v>672.9572005303406</v>
       </c>
       <c r="AB6" t="n">
-        <v>746.7063508399915</v>
+        <v>920.7697305419715</v>
       </c>
       <c r="AC6" t="n">
-        <v>675.4417447247674</v>
+        <v>832.8927597674783</v>
       </c>
       <c r="AD6" t="n">
-        <v>545740.589434593</v>
+        <v>672957.2005303407</v>
       </c>
       <c r="AE6" t="n">
-        <v>746706.3508399915</v>
+        <v>920769.7305419715</v>
       </c>
       <c r="AF6" t="n">
         <v>6.314317874802995e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.85677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>675441.7447247674</v>
+        <v>832892.7597674783</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1068.530346032393</v>
+        <v>1262.03984380807</v>
       </c>
       <c r="AB2" t="n">
-        <v>1462.010359673397</v>
+        <v>1726.778591566606</v>
       </c>
       <c r="AC2" t="n">
-        <v>1322.478142890595</v>
+        <v>1561.977266336463</v>
       </c>
       <c r="AD2" t="n">
-        <v>1068530.346032393</v>
+        <v>1262039.84380807</v>
       </c>
       <c r="AE2" t="n">
-        <v>1462010.359673397</v>
+        <v>1726778.591566606</v>
       </c>
       <c r="AF2" t="n">
         <v>4.35876409429151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.40104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1322478.142890595</v>
+        <v>1561977.266336463</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>613.3936813998314</v>
+        <v>748.8198842748598</v>
       </c>
       <c r="AB3" t="n">
-        <v>839.2722959106025</v>
+        <v>1024.568401266622</v>
       </c>
       <c r="AC3" t="n">
-        <v>759.1733259149593</v>
+        <v>926.7850310405179</v>
       </c>
       <c r="AD3" t="n">
-        <v>613393.6813998314</v>
+        <v>748819.8842748598</v>
       </c>
       <c r="AE3" t="n">
-        <v>839272.2959106024</v>
+        <v>1024568.401266622</v>
       </c>
       <c r="AF3" t="n">
         <v>6.260909330550046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.42838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>759173.3259149593</v>
+        <v>926785.0310405178</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>530.34873078301</v>
+        <v>656.0943845079302</v>
       </c>
       <c r="AB4" t="n">
-        <v>725.6465307920161</v>
+        <v>897.6972817251709</v>
       </c>
       <c r="AC4" t="n">
-        <v>656.3918443445278</v>
+        <v>812.0223130833679</v>
       </c>
       <c r="AD4" t="n">
-        <v>530348.7307830099</v>
+        <v>656094.3845079301</v>
       </c>
       <c r="AE4" t="n">
-        <v>725646.5307920161</v>
+        <v>897697.2817251709</v>
       </c>
       <c r="AF4" t="n">
         <v>6.807205653430567e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.22786458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>656391.8443445278</v>
+        <v>812022.3130833679</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>531.698531563889</v>
+        <v>657.4441852888092</v>
       </c>
       <c r="AB5" t="n">
-        <v>727.4933877694225</v>
+        <v>899.5441387025774</v>
       </c>
       <c r="AC5" t="n">
-        <v>658.0624398840905</v>
+        <v>813.6929086229306</v>
       </c>
       <c r="AD5" t="n">
-        <v>531698.531563889</v>
+        <v>657444.1852888092</v>
       </c>
       <c r="AE5" t="n">
-        <v>727493.3877694225</v>
+        <v>899544.1387025773</v>
       </c>
       <c r="AF5" t="n">
         <v>6.806941869595279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.22786458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>658062.4398840906</v>
+        <v>813692.9086229306</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>501.0154940411812</v>
+        <v>641.2793892995173</v>
       </c>
       <c r="AB2" t="n">
-        <v>685.5115021907734</v>
+        <v>877.4267516895602</v>
       </c>
       <c r="AC2" t="n">
-        <v>620.0872465431213</v>
+        <v>793.6863739844882</v>
       </c>
       <c r="AD2" t="n">
-        <v>501015.4940411812</v>
+        <v>641279.3892995174</v>
       </c>
       <c r="AE2" t="n">
-        <v>685511.5021907734</v>
+        <v>877426.7516895602</v>
       </c>
       <c r="AF2" t="n">
         <v>8.579816120278927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.93619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>620087.2465431213</v>
+        <v>793686.3739844882</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.9132725340591</v>
+        <v>643.1771677923953</v>
       </c>
       <c r="AB3" t="n">
-        <v>688.1081264488071</v>
+        <v>880.0233759475939</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.4360526263532</v>
+        <v>796.0351800677203</v>
       </c>
       <c r="AD3" t="n">
-        <v>502913.2725340591</v>
+        <v>643177.1677923952</v>
       </c>
       <c r="AE3" t="n">
-        <v>688108.1264488071</v>
+        <v>880023.3759475938</v>
       </c>
       <c r="AF3" t="n">
         <v>8.579079750187499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.94270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>622436.0526263532</v>
+        <v>796035.1800677202</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>637.5265551650116</v>
+        <v>789.1120265754078</v>
       </c>
       <c r="AB2" t="n">
-        <v>872.2919584633722</v>
+        <v>1079.697887926096</v>
       </c>
       <c r="AC2" t="n">
-        <v>789.04163821708</v>
+        <v>976.653036867932</v>
       </c>
       <c r="AD2" t="n">
-        <v>637526.5551650116</v>
+        <v>789112.0265754077</v>
       </c>
       <c r="AE2" t="n">
-        <v>872291.9584633722</v>
+        <v>1079697.887926096</v>
       </c>
       <c r="AF2" t="n">
         <v>6.807722903710303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>789041.63821708</v>
+        <v>976653.036867932</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>506.1143685476466</v>
+        <v>638.734699701085</v>
       </c>
       <c r="AB3" t="n">
-        <v>692.4880072369866</v>
+        <v>873.9449951172031</v>
       </c>
       <c r="AC3" t="n">
-        <v>626.3979237393104</v>
+        <v>790.5369113727207</v>
       </c>
       <c r="AD3" t="n">
-        <v>506114.3685476466</v>
+        <v>638734.699701085</v>
       </c>
       <c r="AE3" t="n">
-        <v>692488.0072369867</v>
+        <v>873944.9951172031</v>
       </c>
       <c r="AF3" t="n">
         <v>7.851631141579607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.43880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>626397.9237393104</v>
+        <v>790536.9113727207</v>
       </c>
     </row>
   </sheetData>
@@ -4269,19 +4269,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>515.6612705179205</v>
+        <v>663.6128307391937</v>
       </c>
       <c r="AB2" t="n">
-        <v>705.550499692305</v>
+        <v>907.9843515492238</v>
       </c>
       <c r="AC2" t="n">
-        <v>638.2137502480164</v>
+        <v>821.3275994014062</v>
       </c>
       <c r="AD2" t="n">
-        <v>515661.2705179205</v>
+        <v>663612.8307391937</v>
       </c>
       <c r="AE2" t="n">
-        <v>705550.499692305</v>
+        <v>907984.3515492238</v>
       </c>
       <c r="AF2" t="n">
         <v>9.151436427033946e-06</v>
@@ -4290,7 +4290,7 @@
         <v>30</v>
       </c>
       <c r="AH2" t="n">
-        <v>638213.7502480163</v>
+        <v>821327.5994014062</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1161.044965914109</v>
+        <v>1364.830983362986</v>
       </c>
       <c r="AB2" t="n">
-        <v>1588.592944052535</v>
+        <v>1867.421963530667</v>
       </c>
       <c r="AC2" t="n">
-        <v>1436.979863076361</v>
+        <v>1689.197832274487</v>
       </c>
       <c r="AD2" t="n">
-        <v>1161044.965914109</v>
+        <v>1364830.983362986</v>
       </c>
       <c r="AE2" t="n">
-        <v>1588592.944052535</v>
+        <v>1867421.963530667</v>
       </c>
       <c r="AF2" t="n">
         <v>4.075596105124531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.11979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1436979.863076361</v>
+        <v>1689197.832274487</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>639.6377543674353</v>
+        <v>785.2033540122751</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.1805943516634</v>
+        <v>1074.349869686754</v>
       </c>
       <c r="AC3" t="n">
-        <v>791.6545867504187</v>
+        <v>971.8154259833624</v>
       </c>
       <c r="AD3" t="n">
-        <v>639637.7543674352</v>
+        <v>785203.3540122751</v>
       </c>
       <c r="AE3" t="n">
-        <v>875180.5943516635</v>
+        <v>1074349.869686754</v>
       </c>
       <c r="AF3" t="n">
         <v>5.985846764893945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>791654.5867504188</v>
+        <v>971815.4259833624</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>538.2547602807014</v>
+        <v>664.3693481389641</v>
       </c>
       <c r="AB4" t="n">
-        <v>736.4639091401626</v>
+        <v>909.019452030782</v>
       </c>
       <c r="AC4" t="n">
-        <v>666.1768272854132</v>
+        <v>822.2639113457773</v>
       </c>
       <c r="AD4" t="n">
-        <v>538254.7602807013</v>
+        <v>664369.3481389642</v>
       </c>
       <c r="AE4" t="n">
-        <v>736463.9091401626</v>
+        <v>909019.452030782</v>
       </c>
       <c r="AF4" t="n">
         <v>6.655631459237028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>666176.8272854132</v>
+        <v>822263.9113457772</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>537.5478323687366</v>
+        <v>663.6624202269993</v>
       </c>
       <c r="AB5" t="n">
-        <v>735.4966591835541</v>
+        <v>908.0522020741734</v>
       </c>
       <c r="AC5" t="n">
-        <v>665.3018903071195</v>
+        <v>821.3889743674836</v>
       </c>
       <c r="AD5" t="n">
-        <v>537547.8323687366</v>
+        <v>663662.4202269993</v>
       </c>
       <c r="AE5" t="n">
-        <v>735496.6591835541</v>
+        <v>908052.2020741734</v>
       </c>
       <c r="AF5" t="n">
         <v>6.671333560065209e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>665301.8903071195</v>
+        <v>821388.9743674835</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>536.0842040474957</v>
+        <v>692.2376853831186</v>
       </c>
       <c r="AB2" t="n">
-        <v>733.494058343708</v>
+        <v>947.150140512502</v>
       </c>
       <c r="AC2" t="n">
-        <v>663.4904148807603</v>
+        <v>856.7554604355593</v>
       </c>
       <c r="AD2" t="n">
-        <v>536084.2040474957</v>
+        <v>692237.6853831186</v>
       </c>
       <c r="AE2" t="n">
-        <v>733494.058343708</v>
+        <v>947150.1405125021</v>
       </c>
       <c r="AF2" t="n">
         <v>9.433808023803655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.84244791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>663490.4148807604</v>
+        <v>856755.4604355593</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>831.2518274438173</v>
+        <v>1003.809650129711</v>
       </c>
       <c r="AB2" t="n">
-        <v>1137.355422551062</v>
+        <v>1373.45664826376</v>
       </c>
       <c r="AC2" t="n">
-        <v>1028.807817311148</v>
+        <v>1242.375873411979</v>
       </c>
       <c r="AD2" t="n">
-        <v>831251.8274438173</v>
+        <v>1003809.650129711</v>
       </c>
       <c r="AE2" t="n">
-        <v>1137355.422551061</v>
+        <v>1373456.64826376</v>
       </c>
       <c r="AF2" t="n">
         <v>5.380905691125878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.70052083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1028807.817311149</v>
+        <v>1242375.873411979</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.5099540985025</v>
+        <v>650.6798362312436</v>
       </c>
       <c r="AB3" t="n">
-        <v>706.7117060085344</v>
+        <v>890.2888578999972</v>
       </c>
       <c r="AC3" t="n">
-        <v>639.2641326631881</v>
+        <v>805.3209388302804</v>
       </c>
       <c r="AD3" t="n">
-        <v>516509.9540985025</v>
+        <v>650679.8362312436</v>
       </c>
       <c r="AE3" t="n">
-        <v>706711.7060085344</v>
+        <v>890288.8578999972</v>
       </c>
       <c r="AF3" t="n">
         <v>7.235252988200976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.80729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>639264.132663188</v>
+        <v>805320.9388302804</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>513.9691832978547</v>
+        <v>638.6189524845643</v>
       </c>
       <c r="AB4" t="n">
-        <v>703.2353113081912</v>
+        <v>873.7866246691525</v>
       </c>
       <c r="AC4" t="n">
-        <v>636.1195201938951</v>
+        <v>790.3936555779578</v>
       </c>
       <c r="AD4" t="n">
-        <v>513969.1832978546</v>
+        <v>638618.9524845643</v>
       </c>
       <c r="AE4" t="n">
-        <v>703235.3113081912</v>
+        <v>873786.6246691525</v>
       </c>
       <c r="AF4" t="n">
         <v>7.273114371528726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>636119.5201938951</v>
+        <v>790393.6555779579</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>982.150544694053</v>
+        <v>1175.10402252509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1343.821704674399</v>
+        <v>1607.829165549483</v>
       </c>
       <c r="AC2" t="n">
-        <v>1215.569247245882</v>
+        <v>1454.380206591846</v>
       </c>
       <c r="AD2" t="n">
-        <v>982150.544694053</v>
+        <v>1175104.02252509</v>
       </c>
       <c r="AE2" t="n">
-        <v>1343821.704674399</v>
+        <v>1607829.165549483</v>
       </c>
       <c r="AF2" t="n">
         <v>4.664326379698937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.78645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1215569.247245882</v>
+        <v>1454380.206591846</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>576.3676642058983</v>
+        <v>711.4487648551366</v>
       </c>
       <c r="AB3" t="n">
-        <v>788.6116657132694</v>
+        <v>973.4355869791276</v>
       </c>
       <c r="AC3" t="n">
-        <v>713.3476751610185</v>
+        <v>880.532260783266</v>
       </c>
       <c r="AD3" t="n">
-        <v>576367.6642058983</v>
+        <v>711448.7648551366</v>
       </c>
       <c r="AE3" t="n">
-        <v>788611.6657132694</v>
+        <v>973435.5869791276</v>
       </c>
       <c r="AF3" t="n">
         <v>6.566552821756328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.84244791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>713347.6751610185</v>
+        <v>880532.260783266</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>525.5007256091742</v>
+        <v>650.8634160172784</v>
       </c>
       <c r="AB4" t="n">
-        <v>719.0132762342806</v>
+        <v>890.5400398622184</v>
       </c>
       <c r="AC4" t="n">
-        <v>650.3916582919514</v>
+        <v>805.5481483385635</v>
       </c>
       <c r="AD4" t="n">
-        <v>525500.7256091742</v>
+        <v>650863.4160172783</v>
       </c>
       <c r="AE4" t="n">
-        <v>719013.2762342807</v>
+        <v>890540.0398622183</v>
       </c>
       <c r="AF4" t="n">
         <v>6.943965810687157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.38411458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>650391.6582919514</v>
+        <v>805548.1483385635</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1360.369072596444</v>
+        <v>1594.57461578261</v>
       </c>
       <c r="AB2" t="n">
-        <v>1861.316980374273</v>
+        <v>2181.767336980925</v>
       </c>
       <c r="AC2" t="n">
-        <v>1683.675500142142</v>
+        <v>1973.542524469155</v>
       </c>
       <c r="AD2" t="n">
-        <v>1360369.072596444</v>
+        <v>1594574.61578261</v>
       </c>
       <c r="AE2" t="n">
-        <v>1861316.980374273</v>
+        <v>2181767.336980925</v>
       </c>
       <c r="AF2" t="n">
         <v>3.566495831185174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.92838541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1683675.500142142</v>
+        <v>1973542.524469155</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>715.500496626104</v>
+        <v>861.8415360511866</v>
       </c>
       <c r="AB3" t="n">
-        <v>978.9793451379554</v>
+        <v>1179.209611390363</v>
       </c>
       <c r="AC3" t="n">
-        <v>885.5469304441286</v>
+        <v>1066.66750111035</v>
       </c>
       <c r="AD3" t="n">
-        <v>715500.496626104</v>
+        <v>861841.5360511866</v>
       </c>
       <c r="AE3" t="n">
-        <v>978979.3451379554</v>
+        <v>1179209.611390363</v>
       </c>
       <c r="AF3" t="n">
         <v>5.484247229749447e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>885546.9304441286</v>
+        <v>1066667.50111035</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>573.729690184599</v>
+        <v>700.6465448826244</v>
       </c>
       <c r="AB4" t="n">
-        <v>785.0022732781274</v>
+        <v>958.6555130524251</v>
       </c>
       <c r="AC4" t="n">
-        <v>710.0827580740726</v>
+        <v>867.1627763681639</v>
       </c>
       <c r="AD4" t="n">
-        <v>573729.690184599</v>
+        <v>700646.5448826244</v>
       </c>
       <c r="AE4" t="n">
-        <v>785002.2732781274</v>
+        <v>958655.5130524251</v>
       </c>
       <c r="AF4" t="n">
         <v>6.240321703105382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>710082.7580740725</v>
+        <v>867162.7763681639</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>551.4505282073939</v>
+        <v>668.5713935397246</v>
       </c>
       <c r="AB5" t="n">
-        <v>754.5189409736577</v>
+        <v>914.7688759292618</v>
       </c>
       <c r="AC5" t="n">
-        <v>682.5087122211156</v>
+        <v>827.4646182967533</v>
       </c>
       <c r="AD5" t="n">
-        <v>551450.5282073938</v>
+        <v>668571.3935397245</v>
       </c>
       <c r="AE5" t="n">
-        <v>754518.9409736576</v>
+        <v>914768.8759292618</v>
       </c>
       <c r="AF5" t="n">
         <v>6.401036752292044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.03255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>682508.7122211156</v>
+        <v>827464.6182967533</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>696.522054034673</v>
+        <v>858.2893370136145</v>
       </c>
       <c r="AB2" t="n">
-        <v>953.0122027145638</v>
+        <v>1174.349335955196</v>
       </c>
       <c r="AC2" t="n">
-        <v>862.0580556485123</v>
+        <v>1062.271083541276</v>
       </c>
       <c r="AD2" t="n">
-        <v>696522.054034673</v>
+        <v>858289.3370136145</v>
       </c>
       <c r="AE2" t="n">
-        <v>953012.2027145638</v>
+        <v>1174349.335955196</v>
       </c>
       <c r="AF2" t="n">
         <v>6.266235345882112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>862058.0556485123</v>
+        <v>1062271.083541276</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>510.8683518742462</v>
+        <v>634.5576779262204</v>
       </c>
       <c r="AB3" t="n">
-        <v>698.9926169553822</v>
+        <v>868.2298096476384</v>
       </c>
       <c r="AC3" t="n">
-        <v>632.2817426354593</v>
+        <v>785.3671751830582</v>
       </c>
       <c r="AD3" t="n">
-        <v>510868.3518742461</v>
+        <v>634557.6779262205</v>
       </c>
       <c r="AE3" t="n">
-        <v>698992.6169553823</v>
+        <v>868229.8096476384</v>
       </c>
       <c r="AF3" t="n">
         <v>7.647856937347967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.11979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>632281.7426354593</v>
+        <v>785367.1751830581</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>519.0557613718927</v>
+        <v>660.0014310640335</v>
       </c>
       <c r="AB2" t="n">
-        <v>710.1949918330772</v>
+        <v>903.0430751899602</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.4149785774588</v>
+        <v>816.857911522746</v>
       </c>
       <c r="AD2" t="n">
-        <v>519055.7613718927</v>
+        <v>660001.4310640334</v>
       </c>
       <c r="AE2" t="n">
-        <v>710194.9918330772</v>
+        <v>903043.0751899602</v>
       </c>
       <c r="AF2" t="n">
         <v>8.117701992623736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.98177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>642414.9785774588</v>
+        <v>816857.911522746</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>506.8112223081112</v>
+        <v>638.3228042426814</v>
       </c>
       <c r="AB3" t="n">
-        <v>693.4414732950726</v>
+        <v>873.3814215794699</v>
       </c>
       <c r="AC3" t="n">
-        <v>627.2603923350104</v>
+        <v>790.0271245024486</v>
       </c>
       <c r="AD3" t="n">
-        <v>506811.2223081111</v>
+        <v>638322.8042426814</v>
       </c>
       <c r="AE3" t="n">
-        <v>693441.4732950726</v>
+        <v>873381.4215794699</v>
       </c>
       <c r="AF3" t="n">
         <v>8.312376124989391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.32421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>627260.3923350103</v>
+        <v>790027.1245024486</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.0244071035069</v>
+        <v>647.5797529495107</v>
       </c>
       <c r="AB2" t="n">
-        <v>695.1014062540687</v>
+        <v>886.0471871879082</v>
       </c>
       <c r="AC2" t="n">
-        <v>628.7619036221306</v>
+        <v>801.4840872177311</v>
       </c>
       <c r="AD2" t="n">
-        <v>508024.4071035069</v>
+        <v>647579.7529495107</v>
       </c>
       <c r="AE2" t="n">
-        <v>695101.4062540687</v>
+        <v>886047.1871879082</v>
       </c>
       <c r="AF2" t="n">
         <v>8.85127418474136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.81510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>628761.9036221306</v>
+        <v>801484.0872177312</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>581.9807799722237</v>
+        <v>745.9981728851395</v>
       </c>
       <c r="AB2" t="n">
-        <v>796.2917783379464</v>
+        <v>1020.707611258086</v>
       </c>
       <c r="AC2" t="n">
-        <v>720.2948086159022</v>
+        <v>923.2927094117435</v>
       </c>
       <c r="AD2" t="n">
-        <v>581980.7799722237</v>
+        <v>745998.1728851395</v>
       </c>
       <c r="AE2" t="n">
-        <v>796291.7783379464</v>
+        <v>1020707.611258086</v>
       </c>
       <c r="AF2" t="n">
         <v>9.610510651105612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.10416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>720294.8086159022</v>
+        <v>923292.7094117436</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>909.4173489369026</v>
+        <v>1082.517862589108</v>
       </c>
       <c r="AB2" t="n">
-        <v>1244.304937477331</v>
+        <v>1481.148696911973</v>
       </c>
       <c r="AC2" t="n">
-        <v>1125.550220637443</v>
+        <v>1339.789944083945</v>
       </c>
       <c r="AD2" t="n">
-        <v>909417.3489369026</v>
+        <v>1082517.862589108</v>
       </c>
       <c r="AE2" t="n">
-        <v>1244304.937477331</v>
+        <v>1481148.696911972</v>
       </c>
       <c r="AF2" t="n">
         <v>5.00446311997504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.21744791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1125550.220637443</v>
+        <v>1339789.944083945</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>547.216204341721</v>
+        <v>672.2145420328402</v>
       </c>
       <c r="AB3" t="n">
-        <v>748.7253522554594</v>
+        <v>919.7535924219108</v>
       </c>
       <c r="AC3" t="n">
-        <v>677.2680554788294</v>
+        <v>831.9736004434375</v>
       </c>
       <c r="AD3" t="n">
-        <v>547216.204341721</v>
+        <v>672214.5420328402</v>
       </c>
       <c r="AE3" t="n">
-        <v>748725.3522554594</v>
+        <v>919753.5924219107</v>
       </c>
       <c r="AF3" t="n">
         <v>6.924738282771269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>677268.0554788294</v>
+        <v>831973.6004434375</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.686432810993</v>
+        <v>644.7520903098164</v>
       </c>
       <c r="AB4" t="n">
-        <v>711.0579043193143</v>
+        <v>882.178254416607</v>
       </c>
       <c r="AC4" t="n">
-        <v>643.1955359071147</v>
+        <v>797.9843999600417</v>
       </c>
       <c r="AD4" t="n">
-        <v>519686.4328109929</v>
+        <v>644752.0903098164</v>
       </c>
       <c r="AE4" t="n">
-        <v>711057.9043193143</v>
+        <v>882178.2544166071</v>
       </c>
       <c r="AF4" t="n">
         <v>7.101788877659411e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>643195.5359071147</v>
+        <v>797984.3999600417</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1251.617655842786</v>
+        <v>1475.450721824522</v>
       </c>
       <c r="AB2" t="n">
-        <v>1712.518494198021</v>
+        <v>2018.776769892174</v>
       </c>
       <c r="AC2" t="n">
-        <v>1549.078132646564</v>
+        <v>1826.107548344656</v>
       </c>
       <c r="AD2" t="n">
-        <v>1251617.655842786</v>
+        <v>1475450.721824522</v>
       </c>
       <c r="AE2" t="n">
-        <v>1712518.494198021</v>
+        <v>2018776.769892174</v>
       </c>
       <c r="AF2" t="n">
         <v>3.811905890446832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.96223958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1549078.132646564</v>
+        <v>1826107.548344656</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>677.9419180817291</v>
+        <v>823.9526845573471</v>
       </c>
       <c r="AB3" t="n">
-        <v>927.590041005999</v>
+        <v>1127.368413238336</v>
       </c>
       <c r="AC3" t="n">
-        <v>839.0621493731849</v>
+        <v>1019.773954150373</v>
       </c>
       <c r="AD3" t="n">
-        <v>677941.9180817291</v>
+        <v>823952.6845573471</v>
       </c>
       <c r="AE3" t="n">
-        <v>927590.041005999</v>
+        <v>1127368.413238335</v>
       </c>
       <c r="AF3" t="n">
         <v>5.7218835482377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.61979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>839062.1493731849</v>
+        <v>1019773.954150373</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>550.6275061162905</v>
+        <v>677.0982951982843</v>
       </c>
       <c r="AB4" t="n">
-        <v>753.3928458394381</v>
+        <v>926.4357589588551</v>
       </c>
       <c r="AC4" t="n">
-        <v>681.4900900260217</v>
+        <v>838.0180303845752</v>
       </c>
       <c r="AD4" t="n">
-        <v>550627.5061162906</v>
+        <v>677098.2951982843</v>
       </c>
       <c r="AE4" t="n">
-        <v>753392.8458394381</v>
+        <v>926435.7589588551</v>
       </c>
       <c r="AF4" t="n">
         <v>6.486075846982419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.24739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>681490.0900260217</v>
+        <v>838018.0303845752</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>544.1634432238122</v>
+        <v>660.9662343504077</v>
       </c>
       <c r="AB5" t="n">
-        <v>744.5484298156211</v>
+        <v>904.3631616104947</v>
       </c>
       <c r="AC5" t="n">
-        <v>673.489772654302</v>
+        <v>818.0520107480577</v>
       </c>
       <c r="AD5" t="n">
-        <v>544163.4432238123</v>
+        <v>660966.2343504077</v>
       </c>
       <c r="AE5" t="n">
-        <v>744548.4298156211</v>
+        <v>904363.1616104947</v>
       </c>
       <c r="AF5" t="n">
         <v>6.535630120469155e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.05859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>673489.772654302</v>
+        <v>818052.0107480576</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.9438256332791</v>
+        <v>860.4995623380548</v>
       </c>
       <c r="AB2" t="n">
-        <v>918.0149421839802</v>
+        <v>1177.373463752354</v>
       </c>
       <c r="AC2" t="n">
-        <v>830.4008845440042</v>
+        <v>1065.006592825864</v>
       </c>
       <c r="AD2" t="n">
-        <v>670943.825633279</v>
+        <v>860499.5623380549</v>
       </c>
       <c r="AE2" t="n">
-        <v>918014.9421839803</v>
+        <v>1177373.463752354</v>
       </c>
       <c r="AF2" t="n">
         <v>9.437907446536778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.09635416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>830400.8845440041</v>
+        <v>1065006.592825864</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>582.3741013291574</v>
+        <v>723.9192340103901</v>
       </c>
       <c r="AB2" t="n">
-        <v>796.8299379706166</v>
+        <v>990.4982330356162</v>
       </c>
       <c r="AC2" t="n">
-        <v>720.7816070485422</v>
+        <v>895.9664718476974</v>
       </c>
       <c r="AD2" t="n">
-        <v>582374.1013291574</v>
+        <v>723919.2340103901</v>
       </c>
       <c r="AE2" t="n">
-        <v>796829.9379706166</v>
+        <v>990498.2330356162</v>
       </c>
       <c r="AF2" t="n">
         <v>7.412350448455814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>720781.6070485422</v>
+        <v>895966.4718476974</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>501.078928513387</v>
+        <v>633.2482731418096</v>
       </c>
       <c r="AB3" t="n">
-        <v>685.5982960341768</v>
+        <v>866.4382242547453</v>
       </c>
       <c r="AC3" t="n">
-        <v>620.1657569039262</v>
+        <v>783.7465761855569</v>
       </c>
       <c r="AD3" t="n">
-        <v>501078.928513387</v>
+        <v>633248.2731418096</v>
       </c>
       <c r="AE3" t="n">
-        <v>685598.2960341767</v>
+        <v>866438.2242547453</v>
       </c>
       <c r="AF3" t="n">
         <v>8.080726213758674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.80338541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>620165.7569039261</v>
+        <v>783746.5761855569</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>767.1770496381675</v>
+        <v>929.5096795467595</v>
       </c>
       <c r="AB2" t="n">
-        <v>1049.685484777678</v>
+        <v>1271.796150628804</v>
       </c>
       <c r="AC2" t="n">
-        <v>949.5049753533268</v>
+        <v>1150.417710989899</v>
       </c>
       <c r="AD2" t="n">
-        <v>767177.0496381675</v>
+        <v>929509.6795467595</v>
       </c>
       <c r="AE2" t="n">
-        <v>1049685.484777678</v>
+        <v>1271796.150628804</v>
       </c>
       <c r="AF2" t="n">
         <v>5.79801954613171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.26171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>949504.9753533268</v>
+        <v>1150417.710989899</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>506.6213943965561</v>
+        <v>640.3223348467052</v>
       </c>
       <c r="AB3" t="n">
-        <v>693.1817423718664</v>
+        <v>876.1172675649598</v>
       </c>
       <c r="AC3" t="n">
-        <v>627.0254497665804</v>
+        <v>792.5018651868673</v>
       </c>
       <c r="AD3" t="n">
-        <v>506621.3943965561</v>
+        <v>640322.3348467052</v>
       </c>
       <c r="AE3" t="n">
-        <v>693181.7423718665</v>
+        <v>876117.2675649598</v>
       </c>
       <c r="AF3" t="n">
         <v>7.454892799836731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.87239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>627025.4497665805</v>
+        <v>792501.8651868673</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>508.180196373296</v>
+        <v>641.8811368234451</v>
       </c>
       <c r="AB4" t="n">
-        <v>695.3145640059316</v>
+        <v>878.250089199025</v>
       </c>
       <c r="AC4" t="n">
-        <v>628.9547178973244</v>
+        <v>794.4311333176112</v>
       </c>
       <c r="AD4" t="n">
-        <v>508180.196373296</v>
+        <v>641881.1368234451</v>
       </c>
       <c r="AE4" t="n">
-        <v>695314.5640059316</v>
+        <v>878250.089199025</v>
       </c>
       <c r="AF4" t="n">
         <v>7.454004078263135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.87239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>628954.7178973244</v>
+        <v>794431.1333176112</v>
       </c>
     </row>
   </sheetData>
